--- a/data/trans_orig/Q02G_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_R-Provincia-trans_orig.xlsx
@@ -620,7 +620,7 @@
         <v>5.491913573789812</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>5.322735910835681</v>
+        <v>5.322735910835682</v>
       </c>
     </row>
     <row r="5">
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.60841209116587</v>
+        <v>4.547214032580779</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.12603151307948</v>
+        <v>4.135794351424185</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.794396373907579</v>
+        <v>3.865944117027085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.485387318201989</v>
+        <v>3.433538803112625</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.341775905806863</v>
+        <v>4.340278792364139</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.038944265712377</v>
+        <v>4.066834177304295</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.277921262443604</v>
+        <v>8.490636324188491</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.05784058526956</v>
+        <v>13.37667088746575</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.216657875051998</v>
+        <v>6.920830006217344</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.65558383886028</v>
+        <v>6.611348529734139</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.933790242546459</v>
+        <v>6.782500543819229</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.212363234614362</v>
+        <v>7.35593143049342</v>
       </c>
     </row>
     <row r="7">
@@ -696,10 +696,10 @@
         <v>4.822565985077723</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.494941181091905</v>
+        <v>3.494941181091904</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>4.312965597001459</v>
+        <v>4.312965597001458</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>3.153264479363494</v>
@@ -713,17 +713,17 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.962801551930773</v>
+        <v>2.102120125058067</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>3.771230479766379</v>
+        <v>3.735792389912038</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.132353939550117</v>
+        <v>2.095326753422453</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.457921410726432</v>
+        <v>3.472872193476682</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>1.995176247820556</v>
@@ -737,20 +737,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.538758755948861</v>
+        <v>4.754984097797808</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>6.003707395673003</v>
+        <v>5.950105379921651</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7</v>
+        <v>6.038045325473218</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.323006553426894</v>
+        <v>5.271661221239268</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.061334454147242</v>
+        <v>6.058134629934302</v>
       </c>
     </row>
     <row r="10">
@@ -797,16 +797,16 @@
         <v>1.142857142857143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.586709122220307</v>
+        <v>1.557093566001057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.931985486042147</v>
+        <v>1.905720113113294</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.049471247862705</v>
+        <v>2.001358731205796</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.87052609950173</v>
+        <v>1.871383753743883</v>
       </c>
     </row>
     <row r="12">
@@ -823,16 +823,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.633269547775376</v>
+        <v>4.774994091991879</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.955718603512254</v>
+        <v>4.923645973710706</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.117628641808843</v>
+        <v>4.111349053578611</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.943531258374295</v>
+        <v>4.29774626737011</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>1.853398666646189</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2.275700810668852</v>
+        <v>2.275700810668851</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>4.195626347381126</v>
@@ -859,7 +859,7 @@
         <v>4.359078755692569</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>3.620829176377587</v>
+        <v>3.620829176377586</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>3.785618852670634</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9208654331438573</v>
+        <v>0.9208654331438574</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.570302458564393</v>
+        <v>1.500157722606941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.90486120879268</v>
+        <v>2.936420404349223</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.148268953322169</v>
+        <v>3.155820684632299</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.621354320826202</v>
+        <v>2.673998267818099</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.826859040811263</v>
+        <v>2.856150492993528</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.857142857142857</v>
+        <v>2.717432199130084</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.54813962495016</v>
+        <v>3.624751773499684</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.713987996977583</v>
+        <v>5.981682284162681</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.844444044159879</v>
+        <v>8.052428028095777</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.133354215955426</v>
+        <v>5.293801725382481</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.177782707443062</v>
+        <v>6.467185909390532</v>
       </c>
     </row>
     <row r="16">
@@ -938,13 +938,13 @@
         <v>2.365218344217189</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.050084376674105</v>
+        <v>4.050084376674104</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>2.363121981791206</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.165413104854779</v>
+        <v>4.16541310485478</v>
       </c>
     </row>
     <row r="17">
@@ -959,16 +959,16 @@
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>1.710571140787557</v>
+        <v>1.70748034698821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.105951948245564</v>
+        <v>2.174490436591469</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.883913920298681</v>
+        <v>1.897157427197904</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.56522645362702</v>
+        <v>2.383289293241108</v>
       </c>
     </row>
     <row r="18">
@@ -983,16 +983,16 @@
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>3.494186066533722</v>
+        <v>3.436279969684945</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.020533989911051</v>
+        <v>5.971932160261461</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.206232906061192</v>
+        <v>3.141212446324821</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.043942760308715</v>
+        <v>5.99778154658359</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>3.025695024435994</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>4.142592949670178</v>
+        <v>4.142592949670177</v>
       </c>
     </row>
     <row r="20">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>2.551139700616722</v>
+        <v>2.577402879560366</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.526416833969178</v>
+        <v>2.556865551773014</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.078766554061203</v>
+        <v>3.171446901298511</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.516217021957172</v>
+        <v>2.555118407732979</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.286615513907785</v>
+        <v>3.20666913366686</v>
       </c>
     </row>
     <row r="21">
@@ -1058,19 +1058,19 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>5.728390935140825</v>
+        <v>5.895989212584317</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.665723186428678</v>
+        <v>3.711271054616098</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.181640905108994</v>
+        <v>6.150954843628458</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.648994045274168</v>
+        <v>3.69237177837384</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>5.564746751078679</v>
+        <v>5.46945472563903</v>
       </c>
     </row>
     <row r="22">
@@ -1114,19 +1114,19 @@
         <v>2.50097762250302</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.330047368152983</v>
+        <v>1.367010865915452</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.886047281222154</v>
+        <v>1.860563769872621</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.004595232409497</v>
+        <v>3.041840325052878</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.398175693894713</v>
+        <v>2.367684600882026</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.720455606702337</v>
+        <v>2.665641134738854</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.569671029992016</v>
+        <v>5.516458701284793</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.91109799175217</v>
+        <v>1.949619949445205</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.067724929617824</v>
+        <v>4.308384240862405</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.866353944971649</v>
+        <v>7.512929943212446</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.222863164036808</v>
+        <v>4.258741595863079</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.733851670079696</v>
+        <v>6.48707373608064</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.786897173951676</v>
+        <v>1.802697188185867</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.663751361819284</v>
+        <v>1.669094917715559</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.685976190698563</v>
+        <v>2.655040249953759</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.292316756294336</v>
+        <v>2.30516466359204</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>2.699984652755575</v>
+        <v>2.676670817660964</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>2.284004563620264</v>
+        <v>2.26675484126819</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.305913017795651</v>
+        <v>6.362452049529064</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.349846607675416</v>
+        <v>3.198070493808896</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.181053845071403</v>
+        <v>6.083985848218425</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.677606490681717</v>
+        <v>3.643332909758978</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>5.332744903432228</v>
+        <v>5.507340740197481</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.3861885163491</v>
+        <v>3.497330995419816</v>
       </c>
     </row>
     <row r="28">
@@ -1258,13 +1258,13 @@
         <v>3.927793035337523</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4.046387771740472</v>
+        <v>4.046387771740473</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>3.827727560496572</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.918641669342509</v>
+        <v>3.91864166934251</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.928828834564606</v>
+        <v>2.895729127048899</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.830809593444266</v>
+        <v>2.824039725231824</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.465944883632257</v>
+        <v>3.406393291777655</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.494803660045183</v>
+        <v>3.455412711605845</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.40736050369651</v>
+        <v>3.404909386776233</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.488285893476387</v>
+        <v>3.419036698918279</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.349759112272706</v>
+        <v>4.360777909903164</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.929757563725275</v>
+        <v>5.020704576074951</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.488359147506339</v>
+        <v>4.520165404940597</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.885254197033425</v>
+        <v>4.752269104904605</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.305858065459699</v>
+        <v>4.321688304921881</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.615556331445692</v>
+        <v>4.535169864092125</v>
       </c>
     </row>
     <row r="31">
